--- a/data/Computer_ratings_30humanpoems.xlsx
+++ b/data/Computer_ratings_30humanpoems.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xt235\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="0" windowWidth="25700" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -414,12 +419,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -427,14 +432,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -443,7 +448,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -452,7 +457,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -499,26 +504,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -847,10 +860,10 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -994,7 +1007,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1052,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1226,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1400,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="I19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1429,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
